--- a/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/FacProd.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L2-業務作業/FacProd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E58457D-EE5A-41BF-A23E-F50F6C361BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046D47B3-064D-45F1-8E71-F647587AE03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
   <si>
     <t>備註說明</t>
   </si>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y:是 N:否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,10 +223,6 @@
   </si>
   <si>
     <t>IncrFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y:是 N:否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -475,9 +467,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N = 非階梯式
-A = 固定階梯
-B = 浮動階梯</t>
+    <t>Y:是
+N:否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N:非階梯式
+A:固定階梯
+B:浮動階梯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1161,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1178,11 +1175,11 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="41"/>
       <c r="C1" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>10</v>
@@ -1198,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="19"/>
@@ -1206,14 +1203,14 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="19"/>
@@ -1221,7 +1218,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="6"/>
@@ -1232,7 +1229,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="44" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="6"/>
@@ -1243,7 +1240,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="6"/>
@@ -1254,7 +1251,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="6"/>
@@ -1291,13 +1288,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3">
         <v>5</v>
@@ -1309,13 +1306,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3">
         <v>60</v>
@@ -1327,13 +1324,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="3">
         <v>8</v>
@@ -1345,19 +1342,19 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="3">
         <v>8</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1365,19 +1362,19 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1385,39 +1382,39 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>7</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>23</v>
+      <c r="G15" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1425,13 +1422,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
@@ -1443,19 +1440,19 @@
         <v>9</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3">
         <v>2</v>
       </c>
       <c r="G17" s="39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -1463,13 +1460,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="3">
         <v>6</v>
@@ -1484,13 +1481,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="3">
         <v>6</v>
@@ -1505,19 +1502,19 @@
         <v>12</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>58</v>
+      <c r="G20" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -1525,100 +1522,100 @@
         <v>13</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="22">
         <v>1</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>14</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>15</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>16</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>17</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" s="3">
         <v>1</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
@@ -1626,19 +1623,19 @@
         <v>18</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E26" s="3">
         <v>3</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1646,19 +1643,19 @@
         <v>19</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1666,13 +1663,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C28" s="27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28" s="28">
         <v>3</v>
@@ -1685,13 +1682,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E29" s="25">
         <v>5</v>
@@ -1706,13 +1703,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E30" s="25">
         <v>3</v>
@@ -1725,13 +1722,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E31" s="25">
         <v>5</v>
@@ -1746,13 +1743,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E32" s="25">
         <v>3</v>
@@ -1765,20 +1762,20 @@
         <v>25</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E33" s="32">
         <v>1</v>
       </c>
       <c r="F33" s="32"/>
       <c r="G33" s="36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.3">
@@ -1786,20 +1783,20 @@
         <v>26</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E34" s="32">
         <v>2</v>
       </c>
       <c r="F34" s="32"/>
       <c r="G34" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1807,13 +1804,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="3">
         <v>8</v>
@@ -1825,13 +1822,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E36" s="3">
         <v>6</v>
@@ -1843,13 +1840,13 @@
         <v>29</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E37" s="3">
         <v>8</v>
@@ -1861,13 +1858,13 @@
         <v>30</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E38" s="3">
         <v>6</v>
@@ -1909,7 +1906,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
@@ -1920,46 +1917,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
